--- a/forecast.xlsx
+++ b/forecast.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,32 +438,110 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Avg Estimate</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>+/-</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Upper CI</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Lower CI</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Period</t>
         </is>
@@ -474,21 +552,99 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>281550.71875</v>
+        <v>14694.52434</v>
       </c>
       <c r="C2" t="n">
-        <v>9967.4931640625</v>
+        <v>16408.404074</v>
       </c>
       <c r="D2" t="n">
-        <v>3.540212392807007</v>
+        <v>328168.08148</v>
       </c>
       <c r="E2" t="n">
-        <v>301087</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>262014.4375</v>
-      </c>
-      <c r="G2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>306463.672</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>344131.852</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>285314.875</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>9587.6220703125</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>3.360365390777588</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>304106.625</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>266523.125</v>
+      </c>
+      <c r="AG2" s="2" t="n">
         <v>43054</v>
       </c>
     </row>
@@ -497,21 +653,99 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>272553.1875</v>
+        <v>13362.53185454545</v>
       </c>
       <c r="C3" t="n">
-        <v>11963.634765625</v>
+        <v>14694.52434</v>
       </c>
       <c r="D3" t="n">
-        <v>4.389467716217041</v>
+        <v>146945.2434</v>
       </c>
       <c r="E3" t="n">
-        <v>296001.90625</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>249104.46875</v>
-      </c>
-      <c r="G3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>306463.672</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>344131.852</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>276463.59375</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>12427.044921875</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>4.495002269744873</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>300820.59375</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>252106.59375</v>
+      </c>
+      <c r="AG3" s="2" t="n">
         <v>43055</v>
       </c>
     </row>
@@ -520,21 +754,99 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>270090.25</v>
+        <v>12255.20201833334</v>
       </c>
       <c r="C4" t="n">
-        <v>12412.04296875</v>
+        <v>13362.53185454545</v>
       </c>
       <c r="D4" t="n">
-        <v>4.595517158508301</v>
+        <v>146987.8504</v>
       </c>
       <c r="E4" t="n">
-        <v>294417.84375</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>245762.640625</v>
-      </c>
-      <c r="G4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>306463.672</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>344131.852</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>273113.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>14260.671875</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>5.221518516540527</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>301064.40625</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>245162.578125</v>
+      </c>
+      <c r="AG4" s="2" t="n">
         <v>43056</v>
       </c>
     </row>
@@ -543,21 +855,99 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>271277.1875</v>
+        <v>13570.07634769231</v>
       </c>
       <c r="C5" t="n">
-        <v>12299.3466796875</v>
+        <v>12255.20201833334</v>
       </c>
       <c r="D5" t="n">
-        <v>4.533866882324219</v>
+        <v>147062.42422</v>
       </c>
       <c r="E5" t="n">
-        <v>295383.90625</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>247170.46875</v>
-      </c>
-      <c r="G5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>306463.672</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>344131.852</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>278673.625</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11198.5078125</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>4.018503189086914</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>300622.6875</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>256724.546875</v>
+      </c>
+      <c r="AG5" s="2" t="n">
         <v>43059</v>
       </c>
     </row>
@@ -566,21 +956,99 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>276569.90625</v>
+        <v>15862.25267142857</v>
       </c>
       <c r="C6" t="n">
-        <v>11177.8583984375</v>
+        <v>13570.07634769231</v>
       </c>
       <c r="D6" t="n">
-        <v>4.041603088378906</v>
+        <v>176410.99252</v>
       </c>
       <c r="E6" t="n">
-        <v>298478.5</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>254661.296875</v>
-      </c>
-      <c r="G6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>306463.672</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>344131.852</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>290103.8125</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6130.5849609375</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2.113238334655762</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>302119.75</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>278087.875</v>
+      </c>
+      <c r="AG6" s="2" t="n">
         <v>43060</v>
       </c>
     </row>
@@ -589,21 +1057,99 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>278123.46875</v>
+        <v>14836.72679066667</v>
       </c>
       <c r="C7" t="n">
-        <v>10547.3134765625</v>
+        <v>15862.25267142857</v>
       </c>
       <c r="D7" t="n">
-        <v>3.792313575744629</v>
+        <v>222071.5374</v>
       </c>
       <c r="E7" t="n">
-        <v>298796.1875</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>257450.734375</v>
-      </c>
-      <c r="G7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>306463.672</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>344131.852</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>285718.9375</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9246.615234375</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3.236262559890747</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>303842.3125</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>267595.5625</v>
+      </c>
+      <c r="AG7" s="2" t="n">
         <v>43061</v>
       </c>
     </row>
@@ -612,21 +1158,99 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>268346.5</v>
+        <v>21315.0780575</v>
       </c>
       <c r="C8" t="n">
-        <v>13062.5244140625</v>
+        <v>14836.72679066667</v>
       </c>
       <c r="D8" t="n">
-        <v>4.867782592773438</v>
+        <v>222550.90186</v>
       </c>
       <c r="E8" t="n">
-        <v>293949.0625</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>242743.953125</v>
-      </c>
-      <c r="G8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>301781.684</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>306463.672</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>309928.9375</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11090.0224609375</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>3.578246831893921</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>331665.375</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>288192.5</v>
+      </c>
+      <c r="AG8" s="2" t="n">
         <v>43084</v>
       </c>
     </row>
@@ -635,21 +1259,99 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>268357.71875</v>
+        <v>21162.02648</v>
       </c>
       <c r="C9" t="n">
-        <v>12328.7646484375</v>
+        <v>21315.0780575</v>
       </c>
       <c r="D9" t="n">
-        <v>4.59415340423584</v>
+        <v>170520.62446</v>
       </c>
       <c r="E9" t="n">
-        <v>292522.09375</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>244193.34375</v>
-      </c>
-      <c r="G9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>301781.684</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>306463.672</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>310474.3125</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11175.4384765625</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>3.599472761154175</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>332378.1875</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>288570.4375</v>
+      </c>
+      <c r="AG9" s="2" t="n">
         <v>43087</v>
       </c>
     </row>
@@ -658,21 +1360,99 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>268244.8125</v>
+        <v>20953.823352</v>
       </c>
       <c r="C10" t="n">
-        <v>12486.1572265625</v>
+        <v>21162.02648</v>
       </c>
       <c r="D10" t="n">
-        <v>4.654761791229248</v>
+        <v>190458.23832</v>
       </c>
       <c r="E10" t="n">
-        <v>292717.6875</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>243771.9375</v>
-      </c>
-      <c r="G10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>301781.684</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>306463.672</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>310474.3125</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11175.4384765625</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>3.599472761154175</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>332378.1875</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>288570.4375</v>
+      </c>
+      <c r="AG10" s="2" t="n">
         <v>43088</v>
       </c>
     </row>
@@ -681,21 +1461,99 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>264711.46875</v>
+        <v>18993.98342363636</v>
       </c>
       <c r="C11" t="n">
-        <v>12524.9326171875</v>
+        <v>20953.823352</v>
       </c>
       <c r="D11" t="n">
-        <v>4.731541633605957</v>
+        <v>209538.23352</v>
       </c>
       <c r="E11" t="n">
-        <v>289260.34375</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>240162.59375</v>
-      </c>
-      <c r="G11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>301781.684</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>306463.672</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>309351.75</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>11640.6201171875</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>3.7629075050354</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>332167.375</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>286536.125</v>
+      </c>
+      <c r="AG11" s="2" t="n">
         <v>43089</v>
       </c>
     </row>
@@ -704,21 +1562,99 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>261220.453125</v>
+        <v>17412.92353833333</v>
       </c>
       <c r="C12" t="n">
-        <v>12233.9814453125</v>
+        <v>18993.98342363636</v>
       </c>
       <c r="D12" t="n">
-        <v>4.683393478393555</v>
+        <v>208933.81766</v>
       </c>
       <c r="E12" t="n">
-        <v>285199.0625</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>237241.84375</v>
-      </c>
-      <c r="G12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>301781.684</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>306463.672</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>293066.59375</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>6092.46533203125</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2.078867197036743</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>305007.8125</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>281125.375</v>
+      </c>
+      <c r="AG12" s="2" t="n">
         <v>43090</v>
       </c>
     </row>
@@ -727,21 +1663,99 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>260941.421875</v>
+        <v>17412.92353833333</v>
       </c>
       <c r="C13" t="n">
-        <v>12220.55078125</v>
+        <v>17412.92353833333</v>
       </c>
       <c r="D13" t="n">
-        <v>4.683254241943359</v>
+        <v>208955.08246</v>
       </c>
       <c r="E13" t="n">
-        <v>284893.6875</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>236989.140625</v>
-      </c>
-      <c r="G13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>301781.684</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>306463.672</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>293043.15625</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>6147.0947265625</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2.097675561904907</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>305091.46875</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>280994.84375</v>
+      </c>
+      <c r="AG13" s="2" t="n">
         <v>43091</v>
       </c>
     </row>
@@ -750,21 +1764,99 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>306536.84375</v>
+        <v>22526.583865</v>
       </c>
       <c r="C14" t="n">
-        <v>14830.482421875</v>
+        <v>17412.92353833333</v>
       </c>
       <c r="D14" t="n">
-        <v>4.838075160980225</v>
+        <v>208955.08246</v>
       </c>
       <c r="E14" t="n">
-        <v>335604.59375</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>277469.09375</v>
-      </c>
-      <c r="G14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>325117.1786</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>301781.684</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>315037.25</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>12420.6044921875</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3.942582845687866</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>339381.625</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>290692.875</v>
+      </c>
+      <c r="AG14" s="2" t="n">
         <v>43115</v>
       </c>
     </row>
@@ -773,21 +1865,99 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>308870</v>
+        <v>23461.61367777778</v>
       </c>
       <c r="C15" t="n">
-        <v>16120.23046875</v>
+        <v>22526.583865</v>
       </c>
       <c r="D15" t="n">
-        <v>5.219099044799805</v>
+        <v>180212.67092</v>
       </c>
       <c r="E15" t="n">
-        <v>340465.65625</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>277274.34375</v>
-      </c>
-      <c r="G15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>325117.1786</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>301781.684</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>314992.71875</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>12525.3525390625</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>3.976394176483154</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>339542.40625</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>290443.03125</v>
+      </c>
+      <c r="AG15" s="2" t="n">
         <v>43116</v>
       </c>
     </row>
@@ -796,21 +1966,99 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>309846.59375</v>
+        <v>22177.356272</v>
       </c>
       <c r="C16" t="n">
-        <v>17296.365234375</v>
+        <v>23461.61367777778</v>
       </c>
       <c r="D16" t="n">
-        <v>5.582234859466553</v>
+        <v>211154.5231</v>
       </c>
       <c r="E16" t="n">
-        <v>343747.46875</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>275945.71875</v>
-      </c>
-      <c r="G16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>325117.1786</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>301781.684</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>314992.71875</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>12525.3525390625</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>3.976394176483154</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>339542.40625</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>290443.03125</v>
+      </c>
+      <c r="AG16" s="2" t="n">
         <v>43117</v>
       </c>
     </row>
@@ -819,21 +2067,99 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>309888.03125</v>
+        <v>22177.356272</v>
       </c>
       <c r="C17" t="n">
-        <v>17248.25390625</v>
+        <v>22177.356272</v>
       </c>
       <c r="D17" t="n">
-        <v>5.565963268280029</v>
+        <v>221773.56272</v>
       </c>
       <c r="E17" t="n">
-        <v>343694.625</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>276081.4375</v>
-      </c>
-      <c r="G17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>325117.1786</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>301781.684</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>314992.71875</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>12525.3525390625</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>3.976394176483154</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>339542.40625</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>290443.03125</v>
+      </c>
+      <c r="AG17" s="2" t="n">
         <v>43118</v>
       </c>
     </row>
@@ -842,21 +2168,99 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>309888.03125</v>
+        <v>22177.356272</v>
       </c>
       <c r="C18" t="n">
-        <v>17248.25390625</v>
+        <v>22177.356272</v>
       </c>
       <c r="D18" t="n">
-        <v>5.565963268280029</v>
+        <v>221773.56272</v>
       </c>
       <c r="E18" t="n">
-        <v>343694.625</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>276081.4375</v>
-      </c>
-      <c r="G18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>325117.1786</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>301781.684</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>314992.71875</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>12525.3525390625</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3.976394176483154</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>339542.40625</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>290443.03125</v>
+      </c>
+      <c r="AG18" s="2" t="n">
         <v>43119</v>
       </c>
     </row>
@@ -865,21 +2269,99 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>309828.96875</v>
+        <v>22109.28325454545</v>
       </c>
       <c r="C19" t="n">
-        <v>17227.033203125</v>
+        <v>22177.356272</v>
       </c>
       <c r="D19" t="n">
-        <v>5.560174942016602</v>
+        <v>221773.56272</v>
       </c>
       <c r="E19" t="n">
-        <v>343593.9375</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>276064</v>
-      </c>
-      <c r="G19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>325117.1786</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>301781.684</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>314992.71875</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>12525.3525390625</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>3.976394176483154</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>339542.40625</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>290443.03125</v>
+      </c>
+      <c r="AG19" s="2" t="n">
         <v>43122</v>
       </c>
     </row>
@@ -888,21 +2370,99 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>310718.65625</v>
+        <v>22055.81254833333</v>
       </c>
       <c r="C20" t="n">
-        <v>18097.30859375</v>
+        <v>22109.28325454545</v>
       </c>
       <c r="D20" t="n">
-        <v>5.824339389801025</v>
+        <v>243202.1158</v>
       </c>
       <c r="E20" t="n">
-        <v>346189.375</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>275247.9375</v>
-      </c>
-      <c r="G20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>325117.1786</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>301781.684</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>314984.625</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>12528.23046875</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>3.977410078048706</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>339539.96875</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>290429.28125</v>
+      </c>
+      <c r="AG20" s="2" t="n">
         <v>43123</v>
       </c>
     </row>
@@ -911,21 +2471,99 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>310627.15625</v>
+        <v>21074.65681384615</v>
       </c>
       <c r="C21" t="n">
-        <v>18715.638671875</v>
+        <v>22055.81254833333</v>
       </c>
       <c r="D21" t="n">
-        <v>6.025113582611084</v>
+        <v>264669.75058</v>
       </c>
       <c r="E21" t="n">
-        <v>347309.8125</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>273944.5</v>
-      </c>
-      <c r="G21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>325117.1786</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>301781.684</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>315104.4375</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>12561.0703125</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>3.986320018768311</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>339724.125</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>290484.75</v>
+      </c>
+      <c r="AG21" s="2" t="n">
         <v>43124</v>
       </c>
     </row>
@@ -934,21 +2572,99 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>308966.375</v>
+        <v>19572.38474428571</v>
       </c>
       <c r="C22" t="n">
-        <v>18199.91796875</v>
+        <v>21074.65681384615</v>
       </c>
       <c r="D22" t="n">
-        <v>5.890582084655762</v>
+        <v>273970.53858</v>
       </c>
       <c r="E22" t="n">
-        <v>344638.21875</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>273294.53125</v>
-      </c>
-      <c r="G22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>325117.1786</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>301781.684</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>314775.53125</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>12608.1826171875</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>4.005451679229736</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>339487.5625</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>290063.5</v>
+      </c>
+      <c r="AG22" s="2" t="n">
         <v>43125</v>
       </c>
     </row>
@@ -957,21 +2673,99 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>237854.421875</v>
+        <v>15570.12779714286</v>
       </c>
       <c r="C23" t="n">
-        <v>12486.3173828125</v>
+        <v>19572.38474428571</v>
       </c>
       <c r="D23" t="n">
-        <v>5.249562740325928</v>
+        <v>274013.38642</v>
       </c>
       <c r="E23" t="n">
-        <v>262327.59375</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>213381.234375</v>
-      </c>
-      <c r="G23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>217738.298</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>325117.1786</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>241611.703125</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>12341.6328125</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>5.108044147491455</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>265801.3125</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>217422.09375</v>
+      </c>
+      <c r="AG23" s="2" t="n">
         <v>43146</v>
       </c>
     </row>
@@ -980,21 +2774,99 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>230682.078125</v>
+        <v>15570.12779714286</v>
       </c>
       <c r="C24" t="n">
-        <v>17300.390625</v>
+        <v>15570.12779714286</v>
       </c>
       <c r="D24" t="n">
-        <v>7.499668121337891</v>
+        <v>108990.89458</v>
       </c>
       <c r="E24" t="n">
-        <v>264590.84375</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>196773.3125</v>
-      </c>
-      <c r="G24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>217738.298</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>325117.1786</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>241791.890625</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>12392.4296875</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>5.125246047973633</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>266081.0625</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>217502.734375</v>
+      </c>
+      <c r="AG24" s="2" t="n">
         <v>43147</v>
       </c>
     </row>
@@ -1003,21 +2875,99 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>232808.375</v>
+        <v>16771.2745325</v>
       </c>
       <c r="C25" t="n">
-        <v>17180.970703125</v>
+        <v>15570.12779714286</v>
       </c>
       <c r="D25" t="n">
-        <v>7.379876613616943</v>
+        <v>108990.89458</v>
       </c>
       <c r="E25" t="n">
-        <v>266483.0625</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>199133.671875</v>
-      </c>
-      <c r="G25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>217738.298</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>325117.1786</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>245828.515625</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>13466.984375</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>5.478202342987061</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>272223.8125</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>219433.21875</v>
+      </c>
+      <c r="AG25" s="2" t="n">
         <v>43150</v>
       </c>
     </row>
@@ -1026,21 +2976,99 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>233089.484375</v>
+        <v>16375.21649777778</v>
       </c>
       <c r="C26" t="n">
-        <v>16210.82421875</v>
+        <v>16771.2745325</v>
       </c>
       <c r="D26" t="n">
-        <v>6.954764366149902</v>
+        <v>134170.19626</v>
       </c>
       <c r="E26" t="n">
-        <v>264862.6875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>201316.265625</v>
-      </c>
-      <c r="G26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>217738.298</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>325117.1786</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>242441.703125</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>12577.8447265625</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>5.187987327575684</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>267094.28125</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>217789.125</v>
+      </c>
+      <c r="AG26" s="2" t="n">
         <v>43151</v>
       </c>
     </row>
@@ -1049,21 +3077,99 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>231771.5</v>
+        <v>15776.179726</v>
       </c>
       <c r="C27" t="n">
-        <v>16132.146484375</v>
+        <v>16375.21649777778</v>
       </c>
       <c r="D27" t="n">
-        <v>6.960366725921631</v>
+        <v>147376.94848</v>
       </c>
       <c r="E27" t="n">
-        <v>263390.5</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>200152.5</v>
-      </c>
-      <c r="G27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>217738.298</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>325117.1786</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>242351.890625</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>12534.6669921875</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>5.172093391418457</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>266919.84375</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>217783.9375</v>
+      </c>
+      <c r="AG27" s="2" t="n">
         <v>43152</v>
       </c>
     </row>
@@ -1072,21 +3178,99 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>231459.046875</v>
+        <v>15776.179726</v>
       </c>
       <c r="C28" t="n">
-        <v>16139.4375</v>
+        <v>15776.179726</v>
       </c>
       <c r="D28" t="n">
-        <v>6.972912788391113</v>
+        <v>157761.79726</v>
       </c>
       <c r="E28" t="n">
-        <v>263092.34375</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>199825.75</v>
-      </c>
-      <c r="G28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>217738.298</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>325117.1786</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>242461.84375</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>12602.2021484375</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>5.197602272033691</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>267162.15625</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>217761.53125</v>
+      </c>
+      <c r="AG28" s="2" t="n">
         <v>43153</v>
       </c>
     </row>
@@ -1095,21 +3279,99 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>228860.546875</v>
+        <v>14343.83732545454</v>
       </c>
       <c r="C29" t="n">
-        <v>16213.990234375</v>
+        <v>15776.179726</v>
       </c>
       <c r="D29" t="n">
-        <v>7.084659576416016</v>
+        <v>157761.79726</v>
       </c>
       <c r="E29" t="n">
-        <v>260639.96875</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>197081.125</v>
-      </c>
-      <c r="G29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>217738.298</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>325117.1786</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>233130.4375</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>10804.3720703125</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>4.634474754333496</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>254307</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>211953.875</v>
+      </c>
+      <c r="AG29" s="2" t="n">
         <v>43154</v>
       </c>
     </row>
